--- a/App 2.0/Availability Map/availability_map_color.xlsx
+++ b/App 2.0/Availability Map/availability_map_color.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baba\Desktop\João\Tese\Python\Teste_1\Perdigao_App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baba\Desktop\João\Tese\Python\Teste_1\Perdigao_python\App 2.0\Availability Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFDADCA9-5373-4234-9AAD-43A432EAD3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56157764-B77E-49ED-9DDE-88C2BEC7F52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,24 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$FT$169</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
     <t>20161129</t>
   </si>
@@ -1081,11 +1094,29 @@
   <si>
     <t>Excel 97-2003</t>
   </si>
+  <si>
+    <t>day availability</t>
+  </si>
+  <si>
+    <t>day count</t>
+  </si>
+  <si>
+    <t>sonic count</t>
+  </si>
+  <si>
+    <t>sonic availability</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1125,7 +1156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1210,12 +1241,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1260,40 +1312,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1318,21 +1351,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1645,22 +1664,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FT169"/>
+  <dimension ref="A1:GB181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:FT169"/>
+    <sheetView tabSelected="1" topLeftCell="CC75" zoomScale="30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DU185" sqref="DU185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:184" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2186,8 +2205,26 @@
       <c r="FT1" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="FV1" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="FW1">
+        <v>0</v>
+      </c>
+      <c r="FX1">
+        <v>1</v>
+      </c>
+      <c r="FY1">
+        <v>2</v>
+      </c>
+      <c r="FZ1">
+        <v>3</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="2" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>175</v>
       </c>
@@ -2716,8 +2753,28 @@
       <c r="FT2" s="2">
         <v>0</v>
       </c>
+      <c r="FW2">
+        <f>COUNTIF($B2:$FT2,0)</f>
+        <v>119</v>
+      </c>
+      <c r="FX2">
+        <f>COUNTIF($B2:$FT2,1)</f>
+        <v>52</v>
+      </c>
+      <c r="FY2">
+        <f>COUNTIF($B2:$FT2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="FZ2">
+        <f>COUNTIF($B2:$FT2,3)</f>
+        <v>0</v>
+      </c>
+      <c r="GB2" s="17">
+        <f>FX2/175</f>
+        <v>0.29714285714285715</v>
+      </c>
     </row>
-    <row r="3" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
@@ -3246,8 +3303,28 @@
       <c r="FT3" s="2">
         <v>0</v>
       </c>
+      <c r="FW3">
+        <f t="shared" ref="FW3:FW66" si="0">COUNTIF($B3:$FT3,0)</f>
+        <v>119</v>
+      </c>
+      <c r="FX3">
+        <f t="shared" ref="FX3:FX66" si="1">COUNTIF($B3:$FT3,1)</f>
+        <v>49</v>
+      </c>
+      <c r="FY3">
+        <f t="shared" ref="FY3:FY66" si="2">COUNTIF($B3:$FT3,2)</f>
+        <v>7</v>
+      </c>
+      <c r="FZ3">
+        <f t="shared" ref="FZ3:FZ66" si="3">COUNTIF($B3:$FT3,3)</f>
+        <v>0</v>
+      </c>
+      <c r="GB3" s="17">
+        <f t="shared" ref="GB3:GB66" si="4">FX3/175</f>
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>177</v>
       </c>
@@ -3776,8 +3853,28 @@
       <c r="FT4" s="2">
         <v>0</v>
       </c>
+      <c r="FW4">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="FX4">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="FY4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="FZ4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB4" s="17">
+        <f t="shared" si="4"/>
+        <v>0.29714285714285715</v>
+      </c>
     </row>
-    <row r="5" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
@@ -4306,8 +4403,28 @@
       <c r="FT5" s="2">
         <v>0</v>
       </c>
+      <c r="FW5">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="FX5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="FY5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FZ5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB5" s="17">
+        <f t="shared" si="4"/>
+        <v>0.18285714285714286</v>
+      </c>
     </row>
-    <row r="6" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>179</v>
       </c>
@@ -4836,8 +4953,28 @@
       <c r="FT6" s="2">
         <v>0</v>
       </c>
+      <c r="FW6">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="FX6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="FY6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FZ6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB6" s="17">
+        <f t="shared" si="4"/>
+        <v>0.18285714285714286</v>
+      </c>
     </row>
-    <row r="7" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>180</v>
       </c>
@@ -5366,8 +5503,28 @@
       <c r="FT7" s="2">
         <v>0</v>
       </c>
+      <c r="FW7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="FX7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="FY7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FZ7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB7" s="17">
+        <f t="shared" si="4"/>
+        <v>0.18857142857142858</v>
+      </c>
     </row>
-    <row r="8" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>181</v>
       </c>
@@ -5896,8 +6053,28 @@
       <c r="FT8" s="2">
         <v>0</v>
       </c>
+      <c r="FW8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="FX8">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="FY8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="FZ8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB8" s="17">
+        <f t="shared" si="4"/>
+        <v>0.67428571428571427</v>
+      </c>
     </row>
-    <row r="9" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>182</v>
       </c>
@@ -6426,8 +6603,28 @@
       <c r="FT9" s="2">
         <v>0</v>
       </c>
+      <c r="FW9">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="FX9">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="FY9">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="FZ9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB9" s="17">
+        <f t="shared" si="4"/>
+        <v>0.67428571428571427</v>
+      </c>
     </row>
-    <row r="10" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>183</v>
       </c>
@@ -6956,8 +7153,28 @@
       <c r="FT10" s="2">
         <v>0</v>
       </c>
+      <c r="FW10">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="FX10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="FY10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="FZ10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB10" s="17">
+        <f t="shared" si="4"/>
+        <v>0.17142857142857143</v>
+      </c>
     </row>
-    <row r="11" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>184</v>
       </c>
@@ -7486,8 +7703,28 @@
       <c r="FT11" s="2">
         <v>0</v>
       </c>
+      <c r="FW11">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="FX11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="FY11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FZ11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB11" s="17">
+        <f t="shared" si="4"/>
+        <v>0.20571428571428571</v>
+      </c>
     </row>
-    <row r="12" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>185</v>
       </c>
@@ -8016,8 +8253,28 @@
       <c r="FT12" s="2">
         <v>0</v>
       </c>
+      <c r="FW12">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="FX12">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="FY12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FZ12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB12" s="17">
+        <f t="shared" si="4"/>
+        <v>0.20571428571428571</v>
+      </c>
     </row>
-    <row r="13" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>186</v>
       </c>
@@ -8546,8 +8803,28 @@
       <c r="FT13" s="2">
         <v>0</v>
       </c>
+      <c r="FW13">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="FX13">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="FY13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FZ13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB13" s="17">
+        <f t="shared" si="4"/>
+        <v>0.20571428571428571</v>
+      </c>
     </row>
-    <row r="14" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>187</v>
       </c>
@@ -9076,8 +9353,28 @@
       <c r="FT14" s="2">
         <v>0</v>
       </c>
+      <c r="FW14">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="FX14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="FY14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FZ14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB14" s="17">
+        <f t="shared" si="4"/>
+        <v>0.20571428571428571</v>
+      </c>
     </row>
-    <row r="15" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>188</v>
       </c>
@@ -9606,8 +9903,28 @@
       <c r="FT15" s="2">
         <v>0</v>
       </c>
+      <c r="FW15">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="FX15">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="FY15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FZ15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB15" s="17">
+        <f t="shared" si="4"/>
+        <v>0.20571428571428571</v>
+      </c>
     </row>
-    <row r="16" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>189</v>
       </c>
@@ -10136,8 +10453,28 @@
       <c r="FT16" s="2">
         <v>0</v>
       </c>
+      <c r="FW16">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="FX16">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="FY16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="FZ16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB16" s="17">
+        <f t="shared" si="4"/>
+        <v>0.29142857142857143</v>
+      </c>
     </row>
-    <row r="17" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>190</v>
       </c>
@@ -10666,8 +11003,28 @@
       <c r="FT17" s="2">
         <v>0</v>
       </c>
+      <c r="FW17">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="FX17">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="FY17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="FZ17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB17" s="17">
+        <f t="shared" si="4"/>
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="18" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>191</v>
       </c>
@@ -11196,8 +11553,28 @@
       <c r="FT18" s="2">
         <v>0</v>
       </c>
+      <c r="FW18">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="FX18">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="FY18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="FZ18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB18" s="17">
+        <f t="shared" si="4"/>
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="19" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>192</v>
       </c>
@@ -11726,8 +12103,28 @@
       <c r="FT19" s="2">
         <v>0</v>
       </c>
+      <c r="FW19">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="FX19">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="FY19">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="FZ19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB19" s="17">
+        <f t="shared" si="4"/>
+        <v>0.31428571428571428</v>
+      </c>
     </row>
-    <row r="20" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>193</v>
       </c>
@@ -12256,8 +12653,28 @@
       <c r="FT20" s="2">
         <v>0</v>
       </c>
+      <c r="FW20">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="FX20">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="FY20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="FZ20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB20" s="17">
+        <f t="shared" si="4"/>
+        <v>0.31428571428571428</v>
+      </c>
     </row>
-    <row r="21" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>194</v>
       </c>
@@ -12786,8 +13203,28 @@
       <c r="FT21" s="2">
         <v>0</v>
       </c>
+      <c r="FW21">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="FX21">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="FY21">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="FZ21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB21" s="17">
+        <f t="shared" si="4"/>
+        <v>0.29142857142857143</v>
+      </c>
     </row>
-    <row r="22" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>195</v>
       </c>
@@ -13316,8 +13753,28 @@
       <c r="FT22" s="2">
         <v>0</v>
       </c>
+      <c r="FW22">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="FX22">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="FY22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="FZ22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB22" s="17">
+        <f t="shared" si="4"/>
+        <v>0.32571428571428573</v>
+      </c>
     </row>
-    <row r="23" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>196</v>
       </c>
@@ -13846,8 +14303,28 @@
       <c r="FT23" s="2">
         <v>0</v>
       </c>
+      <c r="FW23">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="FX23">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="FY23">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="FZ23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB23" s="17">
+        <f t="shared" si="4"/>
+        <v>0.34285714285714286</v>
+      </c>
     </row>
-    <row r="24" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>197</v>
       </c>
@@ -14376,8 +14853,28 @@
       <c r="FT24" s="2">
         <v>0</v>
       </c>
+      <c r="FW24">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="FX24">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="FY24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.34285714285714286</v>
+      </c>
     </row>
-    <row r="25" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>198</v>
       </c>
@@ -14906,8 +15403,28 @@
       <c r="FT25" s="2">
         <v>0</v>
       </c>
+      <c r="FW25">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="FX25">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="FY25">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB25" s="17">
+        <f t="shared" si="4"/>
+        <v>0.33714285714285713</v>
+      </c>
     </row>
-    <row r="26" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>199</v>
       </c>
@@ -15436,8 +15953,28 @@
       <c r="FT26" s="2">
         <v>0</v>
       </c>
+      <c r="FW26">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="FX26">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="FY26">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="FZ26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB26" s="17">
+        <f t="shared" si="4"/>
+        <v>0.33142857142857141</v>
+      </c>
     </row>
-    <row r="27" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>200</v>
       </c>
@@ -15966,8 +16503,28 @@
       <c r="FT27" s="2">
         <v>0</v>
       </c>
+      <c r="FW27">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="FX27">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="FY27">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="FZ27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB27" s="17">
+        <f t="shared" si="4"/>
+        <v>0.34285714285714286</v>
+      </c>
     </row>
-    <row r="28" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>201</v>
       </c>
@@ -16496,8 +17053,28 @@
       <c r="FT28" s="2">
         <v>0</v>
       </c>
+      <c r="FW28">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="FX28">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="FY28">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="FZ28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB28" s="17">
+        <f t="shared" si="4"/>
+        <v>0.33142857142857141</v>
+      </c>
     </row>
-    <row r="29" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>202</v>
       </c>
@@ -17026,8 +17603,28 @@
       <c r="FT29" s="2">
         <v>0</v>
       </c>
+      <c r="FW29">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="FX29">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="FY29">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="FZ29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB29" s="17">
+        <f t="shared" si="4"/>
+        <v>0.29714285714285715</v>
+      </c>
     </row>
-    <row r="30" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
@@ -17556,8 +18153,28 @@
       <c r="FT30" s="2">
         <v>0</v>
       </c>
+      <c r="FW30">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="FX30">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="FY30">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="FZ30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB30" s="17">
+        <f t="shared" si="4"/>
+        <v>0.30857142857142855</v>
+      </c>
     </row>
-    <row r="31" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
@@ -18086,8 +18703,28 @@
       <c r="FT31" s="2">
         <v>0</v>
       </c>
+      <c r="FW31">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="FX31">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="FY31">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="FZ31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB31" s="17">
+        <f t="shared" si="4"/>
+        <v>0.37142857142857144</v>
+      </c>
     </row>
-    <row r="32" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>205</v>
       </c>
@@ -18616,8 +19253,28 @@
       <c r="FT32" s="2">
         <v>0</v>
       </c>
+      <c r="FW32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="FX32">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="FY32">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="FZ32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB32" s="17">
+        <f t="shared" si="4"/>
+        <v>0.37142857142857144</v>
+      </c>
     </row>
-    <row r="33" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>206</v>
       </c>
@@ -19146,8 +19803,28 @@
       <c r="FT33" s="2">
         <v>0</v>
       </c>
+      <c r="FW33">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="FX33">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="FY33">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="FZ33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB33" s="17">
+        <f t="shared" si="4"/>
+        <v>0.37142857142857144</v>
+      </c>
     </row>
-    <row r="34" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>207</v>
       </c>
@@ -19676,8 +20353,28 @@
       <c r="FT34" s="2">
         <v>0</v>
       </c>
+      <c r="FW34">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="FX34">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="FY34">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="FZ34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB34" s="17">
+        <f t="shared" si="4"/>
+        <v>0.37142857142857144</v>
+      </c>
     </row>
-    <row r="35" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>208</v>
       </c>
@@ -20206,8 +20903,28 @@
       <c r="FT35" s="2">
         <v>0</v>
       </c>
+      <c r="FW35">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="FX35">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="FY35">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="FZ35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB35" s="17">
+        <f t="shared" si="4"/>
+        <v>0.37142857142857144</v>
+      </c>
     </row>
-    <row r="36" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>209</v>
       </c>
@@ -20736,8 +21453,28 @@
       <c r="FT36" s="2">
         <v>0</v>
       </c>
+      <c r="FW36">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="FX36">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="FY36">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="FZ36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB36" s="17">
+        <f t="shared" si="4"/>
+        <v>0.23428571428571429</v>
+      </c>
     </row>
-    <row r="37" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>210</v>
       </c>
@@ -21266,8 +22003,28 @@
       <c r="FT37" s="2">
         <v>0</v>
       </c>
+      <c r="FW37">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="FX37">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="FY37">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="FZ37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB37" s="17">
+        <f t="shared" si="4"/>
+        <v>0.23428571428571429</v>
+      </c>
     </row>
-    <row r="38" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>211</v>
       </c>
@@ -21796,8 +22553,28 @@
       <c r="FT38" s="2">
         <v>0</v>
       </c>
+      <c r="FW38">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="FX38">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="FY38">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="FZ38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB38" s="17">
+        <f t="shared" si="4"/>
+        <v>0.23428571428571429</v>
+      </c>
     </row>
-    <row r="39" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>212</v>
       </c>
@@ -22326,8 +23103,28 @@
       <c r="FT39" s="2">
         <v>0</v>
       </c>
+      <c r="FW39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="FX39">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="FY39">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="FZ39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB39" s="17">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
     </row>
-    <row r="40" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>213</v>
       </c>
@@ -22856,8 +23653,28 @@
       <c r="FT40" s="2">
         <v>0</v>
       </c>
+      <c r="FW40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="FX40">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="FY40">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="FZ40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB40" s="17">
+        <f t="shared" si="4"/>
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="41" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>214</v>
       </c>
@@ -23386,8 +24203,28 @@
       <c r="FT41" s="2">
         <v>0</v>
       </c>
+      <c r="FW41">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="FX41">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="FY41">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="FZ41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB41" s="17">
+        <f t="shared" si="4"/>
+        <v>0.46285714285714286</v>
+      </c>
     </row>
-    <row r="42" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>215</v>
       </c>
@@ -23916,8 +24753,28 @@
       <c r="FT42" s="2">
         <v>0</v>
       </c>
+      <c r="FW42">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="FX42">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="FY42">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="FZ42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB42" s="17">
+        <f t="shared" si="4"/>
+        <v>0.45714285714285713</v>
+      </c>
     </row>
-    <row r="43" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>216</v>
       </c>
@@ -24446,8 +25303,28 @@
       <c r="FT43" s="2">
         <v>0</v>
       </c>
+      <c r="FW43">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="FX43">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="FY43">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="FZ43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB43" s="17">
+        <f t="shared" si="4"/>
+        <v>0.46285714285714286</v>
+      </c>
     </row>
-    <row r="44" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>217</v>
       </c>
@@ -24976,8 +25853,28 @@
       <c r="FT44" s="2">
         <v>0</v>
       </c>
+      <c r="FW44">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="FX44">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="FY44">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="FZ44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB44" s="17">
+        <f t="shared" si="4"/>
+        <v>0.46285714285714286</v>
+      </c>
     </row>
-    <row r="45" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>218</v>
       </c>
@@ -25506,8 +26403,28 @@
       <c r="FT45" s="2">
         <v>0</v>
       </c>
+      <c r="FW45">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="FX45">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="FY45">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="FZ45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB45" s="17">
+        <f t="shared" si="4"/>
+        <v>0.46285714285714286</v>
+      </c>
     </row>
-    <row r="46" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>219</v>
       </c>
@@ -26036,8 +26953,28 @@
       <c r="FT46" s="2">
         <v>0</v>
       </c>
+      <c r="FW46">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="FX46">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="FY46">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="FZ46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB46" s="17">
+        <f t="shared" si="4"/>
+        <v>0.73142857142857143</v>
+      </c>
     </row>
-    <row r="47" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>220</v>
       </c>
@@ -26566,8 +27503,28 @@
       <c r="FT47" s="2">
         <v>0</v>
       </c>
+      <c r="FW47">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="FX47">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="FY47">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="FZ47">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="GB47" s="17">
+        <f t="shared" si="4"/>
+        <v>0.36571428571428571</v>
+      </c>
     </row>
-    <row r="48" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>221</v>
       </c>
@@ -27096,8 +28053,28 @@
       <c r="FT48" s="2">
         <v>0</v>
       </c>
+      <c r="FW48">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="FX48">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="FY48">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="FZ48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB48" s="17">
+        <f t="shared" si="4"/>
+        <v>0.65714285714285714</v>
+      </c>
     </row>
-    <row r="49" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>222</v>
       </c>
@@ -27626,8 +28603,28 @@
       <c r="FT49" s="2">
         <v>0</v>
       </c>
+      <c r="FW49">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX49">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="FY49">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB49" s="17">
+        <f t="shared" si="4"/>
+        <v>0.17714285714285713</v>
+      </c>
     </row>
-    <row r="50" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>223</v>
       </c>
@@ -28156,8 +29153,28 @@
       <c r="FT50" s="2">
         <v>0</v>
       </c>
+      <c r="FW50">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX50">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="FY50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB50" s="17">
+        <f t="shared" si="4"/>
+        <v>0.17714285714285713</v>
+      </c>
     </row>
-    <row r="51" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>224</v>
       </c>
@@ -28686,8 +29703,28 @@
       <c r="FT51" s="2">
         <v>0</v>
       </c>
+      <c r="FW51">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX51">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="FY51">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB51" s="17">
+        <f t="shared" si="4"/>
+        <v>0.17714285714285713</v>
+      </c>
     </row>
-    <row r="52" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>225</v>
       </c>
@@ -29216,8 +30253,28 @@
       <c r="FT52" s="2">
         <v>0</v>
       </c>
+      <c r="FW52">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX52">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="FY52">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB52" s="17">
+        <f t="shared" si="4"/>
+        <v>0.17714285714285713</v>
+      </c>
     </row>
-    <row r="53" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>226</v>
       </c>
@@ -29746,8 +30803,28 @@
       <c r="FT53" s="2">
         <v>0</v>
       </c>
+      <c r="FW53">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX53">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="FY53">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB53" s="17">
+        <f t="shared" si="4"/>
+        <v>0.17714285714285713</v>
+      </c>
     </row>
-    <row r="54" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>227</v>
       </c>
@@ -30276,8 +31353,28 @@
       <c r="FT54" s="2">
         <v>0</v>
       </c>
+      <c r="FW54">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX54">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="FY54">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="FZ54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB54" s="17">
+        <f t="shared" si="4"/>
+        <v>0.18285714285714286</v>
+      </c>
     </row>
-    <row r="55" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>228</v>
       </c>
@@ -30806,8 +31903,28 @@
       <c r="FT55" s="2">
         <v>0</v>
       </c>
+      <c r="FW55">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX55">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="FY55">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="FZ55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB55" s="17">
+        <f t="shared" si="4"/>
+        <v>0.18857142857142858</v>
+      </c>
     </row>
-    <row r="56" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>229</v>
       </c>
@@ -31336,8 +32453,28 @@
       <c r="FT56" s="2">
         <v>0</v>
       </c>
+      <c r="FW56">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX56">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="FY56">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="FZ56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB56" s="17">
+        <f t="shared" si="4"/>
+        <v>0.18857142857142858</v>
+      </c>
     </row>
-    <row r="57" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>230</v>
       </c>
@@ -31866,8 +33003,28 @@
       <c r="FT57" s="2">
         <v>0</v>
       </c>
+      <c r="FW57">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX57">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="FY57">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="FZ57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB57" s="17">
+        <f t="shared" si="4"/>
+        <v>0.18857142857142858</v>
+      </c>
     </row>
-    <row r="58" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>231</v>
       </c>
@@ -32396,8 +33553,28 @@
       <c r="FT58" s="2">
         <v>0</v>
       </c>
+      <c r="FW58">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX58">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="FY58">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="FZ58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB58" s="17">
+        <f t="shared" si="4"/>
+        <v>0.18857142857142858</v>
+      </c>
     </row>
-    <row r="59" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>232</v>
       </c>
@@ -32926,8 +34103,28 @@
       <c r="FT59" s="2">
         <v>0</v>
       </c>
+      <c r="FW59">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX59">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="FY59">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="FZ59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB59" s="17">
+        <f t="shared" si="4"/>
+        <v>0.18857142857142858</v>
+      </c>
     </row>
-    <row r="60" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>233</v>
       </c>
@@ -33456,8 +34653,28 @@
       <c r="FT60" s="2">
         <v>0</v>
       </c>
+      <c r="FW60">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="FX60">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="FY60">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FZ60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB60" s="17">
+        <f t="shared" si="4"/>
+        <v>0.19428571428571428</v>
+      </c>
     </row>
-    <row r="61" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>234</v>
       </c>
@@ -33986,8 +35203,28 @@
       <c r="FT61" s="2">
         <v>0</v>
       </c>
+      <c r="FW61">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="FX61">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="FY61">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB61" s="17">
+        <f t="shared" si="4"/>
+        <v>0.1657142857142857</v>
+      </c>
     </row>
-    <row r="62" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>235</v>
       </c>
@@ -34516,8 +35753,28 @@
       <c r="FT62" s="2">
         <v>0</v>
       </c>
+      <c r="FW62">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="FX62">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="FY62">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB62" s="17">
+        <f t="shared" si="4"/>
+        <v>0.1657142857142857</v>
+      </c>
     </row>
-    <row r="63" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>236</v>
       </c>
@@ -35046,8 +36303,28 @@
       <c r="FT63" s="2">
         <v>0</v>
       </c>
+      <c r="FW63">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="FX63">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="FY63">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB63" s="17">
+        <f t="shared" si="4"/>
+        <v>0.1657142857142857</v>
+      </c>
     </row>
-    <row r="64" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>237</v>
       </c>
@@ -35576,8 +36853,28 @@
       <c r="FT64" s="2">
         <v>0</v>
       </c>
+      <c r="FW64">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="FX64">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="FY64">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB64" s="17">
+        <f t="shared" si="4"/>
+        <v>0.1657142857142857</v>
+      </c>
     </row>
-    <row r="65" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>238</v>
       </c>
@@ -36106,8 +37403,28 @@
       <c r="FT65" s="2">
         <v>0</v>
       </c>
+      <c r="FW65">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="FX65">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="FY65">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="FZ65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB65" s="17">
+        <f t="shared" si="4"/>
+        <v>0.1657142857142857</v>
+      </c>
     </row>
-    <row r="66" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>239</v>
       </c>
@@ -36636,8 +37953,28 @@
       <c r="FT66" s="2">
         <v>0</v>
       </c>
+      <c r="FW66">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="FX66">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="FY66">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="FZ66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB66" s="17">
+        <f t="shared" si="4"/>
+        <v>0.17142857142857143</v>
+      </c>
     </row>
-    <row r="67" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>240</v>
       </c>
@@ -37166,8 +38503,28 @@
       <c r="FT67" s="2">
         <v>0</v>
       </c>
+      <c r="FW67">
+        <f t="shared" ref="FW67:FW130" si="5">COUNTIF($B67:$FT67,0)</f>
+        <v>141</v>
+      </c>
+      <c r="FX67">
+        <f t="shared" ref="FX67:FX130" si="6">COUNTIF($B67:$FT67,1)</f>
+        <v>27</v>
+      </c>
+      <c r="FY67">
+        <f t="shared" ref="FY67:FY130" si="7">COUNTIF($B67:$FT67,2)</f>
+        <v>7</v>
+      </c>
+      <c r="FZ67">
+        <f t="shared" ref="FZ67:FZ130" si="8">COUNTIF($B67:$FT67,3)</f>
+        <v>0</v>
+      </c>
+      <c r="GB67" s="17">
+        <f t="shared" ref="GB67:GB130" si="9">FX67/175</f>
+        <v>0.15428571428571428</v>
+      </c>
     </row>
-    <row r="68" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>241</v>
       </c>
@@ -37696,8 +39053,28 @@
       <c r="FT68" s="2">
         <v>0</v>
       </c>
+      <c r="FW68">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="FX68">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="FY68">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="FZ68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB68" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="69" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>242</v>
       </c>
@@ -38226,8 +39603,28 @@
       <c r="FT69" s="2">
         <v>0</v>
       </c>
+      <c r="FW69">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="FX69">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="FY69">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="FZ69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB69" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="70" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>243</v>
       </c>
@@ -38756,8 +40153,28 @@
       <c r="FT70" s="2">
         <v>0</v>
       </c>
+      <c r="FW70">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="FX70">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="FY70">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="FZ70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB70" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="71" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>244</v>
       </c>
@@ -39286,8 +40703,28 @@
       <c r="FT71" s="2">
         <v>0</v>
       </c>
+      <c r="FW71">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="FX71">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="FY71">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="FZ71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB71" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="72" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>245</v>
       </c>
@@ -39816,8 +41253,28 @@
       <c r="FT72" s="2">
         <v>0</v>
       </c>
+      <c r="FW72">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="FX72">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="FY72">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="FZ72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB72" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="73" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>246</v>
       </c>
@@ -40346,8 +41803,28 @@
       <c r="FT73" s="2">
         <v>0</v>
       </c>
+      <c r="FW73">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="FX73">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="FY73">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="FZ73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB73" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="74" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>247</v>
       </c>
@@ -40876,8 +42353,28 @@
       <c r="FT74" s="2">
         <v>0</v>
       </c>
+      <c r="FW74">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="FX74">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="FY74">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="FZ74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB74" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="75" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>248</v>
       </c>
@@ -41406,8 +42903,28 @@
       <c r="FT75" s="2">
         <v>0</v>
       </c>
+      <c r="FW75">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="FX75">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="FY75">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="FZ75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB75" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="76" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>249</v>
       </c>
@@ -41936,8 +43453,28 @@
       <c r="FT76" s="2">
         <v>0</v>
       </c>
+      <c r="FW76">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="FX76">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="FY76">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="FZ76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB76" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="77" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>250</v>
       </c>
@@ -42466,8 +44003,28 @@
       <c r="FT77" s="2">
         <v>0</v>
       </c>
+      <c r="FW77">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="FX77">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="FY77">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="FZ77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB77" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="78" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>251</v>
       </c>
@@ -42996,8 +44553,28 @@
       <c r="FT78" s="2">
         <v>0</v>
       </c>
+      <c r="FW78">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="FX78">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="FY78">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="FZ78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB78" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="79" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>252</v>
       </c>
@@ -43526,8 +45103,28 @@
       <c r="FT79" s="2">
         <v>0</v>
       </c>
+      <c r="FW79">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="FX79">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="FY79">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="FZ79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB79" s="17">
+        <f t="shared" si="9"/>
+        <v>0.32571428571428573</v>
+      </c>
     </row>
-    <row r="80" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>253</v>
       </c>
@@ -44056,8 +45653,28 @@
       <c r="FT80" s="2">
         <v>0</v>
       </c>
+      <c r="FW80">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="FX80">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="FY80">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="FZ80">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB80" s="17">
+        <f t="shared" si="9"/>
+        <v>0.35428571428571426</v>
+      </c>
     </row>
-    <row r="81" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>254</v>
       </c>
@@ -44586,8 +46203,28 @@
       <c r="FT81" s="2">
         <v>0</v>
       </c>
+      <c r="FW81">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="FX81">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="FY81">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="FZ81">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB81" s="17">
+        <f t="shared" si="9"/>
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="82" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>255</v>
       </c>
@@ -45116,8 +46753,28 @@
       <c r="FT82" s="2">
         <v>0</v>
       </c>
+      <c r="FW82">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="FX82">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="FY82">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="FZ82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB82" s="17">
+        <f t="shared" si="9"/>
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="83" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>256</v>
       </c>
@@ -45646,8 +47303,28 @@
       <c r="FT83" s="2">
         <v>0</v>
       </c>
+      <c r="FW83">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="FX83">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="FY83">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="FZ83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB83" s="17">
+        <f t="shared" si="9"/>
+        <v>0.48571428571428571</v>
+      </c>
     </row>
-    <row r="84" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>257</v>
       </c>
@@ -46176,8 +47853,28 @@
       <c r="FT84" s="2">
         <v>0</v>
       </c>
+      <c r="FW84">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="FX84">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="FY84">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="FZ84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB84" s="17">
+        <f t="shared" si="9"/>
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="85" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>258</v>
       </c>
@@ -46706,8 +48403,28 @@
       <c r="FT85" s="2">
         <v>0</v>
       </c>
+      <c r="FW85">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="FX85">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="FY85">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="FZ85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB85" s="17">
+        <f t="shared" si="9"/>
+        <v>0.48571428571428571</v>
+      </c>
     </row>
-    <row r="86" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>259</v>
       </c>
@@ -47236,8 +48953,28 @@
       <c r="FT86" s="2">
         <v>0</v>
       </c>
+      <c r="FW86">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="FX86">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="FY86">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="FZ86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB86" s="17">
+        <f t="shared" si="9"/>
+        <v>0.48571428571428571</v>
+      </c>
     </row>
-    <row r="87" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>260</v>
       </c>
@@ -47766,8 +49503,28 @@
       <c r="FT87" s="2">
         <v>0</v>
       </c>
+      <c r="FW87">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="FX87">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="FY87">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="FZ87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB87" s="17">
+        <f t="shared" si="9"/>
+        <v>0.48571428571428571</v>
+      </c>
     </row>
-    <row r="88" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>261</v>
       </c>
@@ -48296,8 +50053,28 @@
       <c r="FT88" s="2">
         <v>0</v>
       </c>
+      <c r="FW88">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="FX88">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="FY88">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="FZ88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB88" s="17">
+        <f t="shared" si="9"/>
+        <v>0.48571428571428571</v>
+      </c>
     </row>
-    <row r="89" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>262</v>
       </c>
@@ -48826,8 +50603,28 @@
       <c r="FT89" s="2">
         <v>0</v>
       </c>
+      <c r="FW89">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="FX89">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="FY89">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="FZ89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB89" s="17">
+        <f t="shared" si="9"/>
+        <v>0.48571428571428571</v>
+      </c>
     </row>
-    <row r="90" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>263</v>
       </c>
@@ -49356,8 +51153,28 @@
       <c r="FT90" s="2">
         <v>0</v>
       </c>
+      <c r="FW90">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="FX90">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="FY90">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="FZ90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB90" s="17">
+        <f t="shared" si="9"/>
+        <v>0.10285714285714286</v>
+      </c>
     </row>
-    <row r="91" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>264</v>
       </c>
@@ -49886,8 +51703,28 @@
       <c r="FT91" s="2">
         <v>0</v>
       </c>
+      <c r="FW91">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="FX91">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="FY91">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="FZ91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB91" s="17">
+        <f t="shared" si="9"/>
+        <v>0.63428571428571423</v>
+      </c>
     </row>
-    <row r="92" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>265</v>
       </c>
@@ -50416,8 +52253,28 @@
       <c r="FT92" s="2">
         <v>0</v>
       </c>
+      <c r="FW92">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="FX92">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="FY92">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="FZ92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB92" s="17">
+        <f t="shared" si="9"/>
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="93" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>266</v>
       </c>
@@ -50946,8 +52803,28 @@
       <c r="FT93" s="2">
         <v>0</v>
       </c>
+      <c r="FW93">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="FX93">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="FY93">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="FZ93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB93" s="17">
+        <f t="shared" si="9"/>
+        <v>0.62857142857142856</v>
+      </c>
     </row>
-    <row r="94" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>267</v>
       </c>
@@ -51476,8 +53353,28 @@
       <c r="FT94" s="2">
         <v>0</v>
       </c>
+      <c r="FW94">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="FX94">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="FY94">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="FZ94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB94" s="17">
+        <f t="shared" si="9"/>
+        <v>0.63428571428571423</v>
+      </c>
     </row>
-    <row r="95" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>268</v>
       </c>
@@ -52006,8 +53903,28 @@
       <c r="FT95" s="2">
         <v>0</v>
       </c>
+      <c r="FW95">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="FX95">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="FY95">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="FZ95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB95" s="17">
+        <f t="shared" si="9"/>
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="96" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>269</v>
       </c>
@@ -52536,8 +54453,28 @@
       <c r="FT96" s="2">
         <v>0</v>
       </c>
+      <c r="FW96">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="FX96">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="FY96">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="FZ96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB96" s="17">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
-    <row r="97" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>270</v>
       </c>
@@ -53066,8 +55003,28 @@
       <c r="FT97" s="2">
         <v>0</v>
       </c>
+      <c r="FW97">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="FX97">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="FY97">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="FZ97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB97" s="17">
+        <f t="shared" si="9"/>
+        <v>0.65714285714285714</v>
+      </c>
     </row>
-    <row r="98" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>271</v>
       </c>
@@ -53596,8 +55553,28 @@
       <c r="FT98" s="2">
         <v>0</v>
       </c>
+      <c r="FW98">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="FX98">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="FY98">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="FZ98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB98" s="17">
+        <f t="shared" si="9"/>
+        <v>0.33142857142857141</v>
+      </c>
     </row>
-    <row r="99" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>272</v>
       </c>
@@ -54126,8 +56103,28 @@
       <c r="FT99" s="2">
         <v>0</v>
       </c>
+      <c r="FW99">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="FX99">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="FY99">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="FZ99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB99" s="17">
+        <f t="shared" si="9"/>
+        <v>0.33142857142857141</v>
+      </c>
     </row>
-    <row r="100" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>273</v>
       </c>
@@ -54656,8 +56653,28 @@
       <c r="FT100" s="2">
         <v>0</v>
       </c>
+      <c r="FW100">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="FX100">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="FY100">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="FZ100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB100" s="17">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
-    <row r="101" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>274</v>
       </c>
@@ -55186,8 +57203,28 @@
       <c r="FT101" s="2">
         <v>0</v>
       </c>
+      <c r="FW101">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="FX101">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="FY101">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="FZ101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB101" s="17">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
-    <row r="102" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>275</v>
       </c>
@@ -55716,8 +57753,28 @@
       <c r="FT102" s="2">
         <v>0</v>
       </c>
+      <c r="FW102">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="FX102">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="FY102">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="FZ102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB102" s="17">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
-    <row r="103" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>276</v>
       </c>
@@ -56246,8 +58303,28 @@
       <c r="FT103" s="2">
         <v>0</v>
       </c>
+      <c r="FW103">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="FX103">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="FY103">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="FZ103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB103" s="17">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
-    <row r="104" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>277</v>
       </c>
@@ -56776,8 +58853,28 @@
       <c r="FT104" s="2">
         <v>0</v>
       </c>
+      <c r="FW104">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="FX104">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="FY104">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="FZ104">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB104" s="17">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
-    <row r="105" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>278</v>
       </c>
@@ -57306,8 +59403,28 @@
       <c r="FT105" s="2">
         <v>0</v>
       </c>
+      <c r="FW105">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="FX105">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="FY105">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="FZ105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB105" s="17">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
-    <row r="106" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>279</v>
       </c>
@@ -57836,8 +59953,28 @@
       <c r="FT106" s="2">
         <v>0</v>
       </c>
+      <c r="FW106">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="FX106">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="FY106">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="FZ106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB106" s="17">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
-    <row r="107" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>280</v>
       </c>
@@ -58366,8 +60503,28 @@
       <c r="FT107" s="2">
         <v>0</v>
       </c>
+      <c r="FW107">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="FX107">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="FY107">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="FZ107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB107" s="17">
+        <f t="shared" si="9"/>
+        <v>0.70857142857142852</v>
+      </c>
     </row>
-    <row r="108" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>281</v>
       </c>
@@ -58896,8 +61053,28 @@
       <c r="FT108" s="2">
         <v>0</v>
       </c>
+      <c r="FW108">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="FX108">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="FY108">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="FZ108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB108" s="17">
+        <f t="shared" si="9"/>
+        <v>0.70857142857142852</v>
+      </c>
     </row>
-    <row r="109" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>282</v>
       </c>
@@ -59426,8 +61603,28 @@
       <c r="FT109" s="2">
         <v>2</v>
       </c>
+      <c r="FW109">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="FX109">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="FY109">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="FZ109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB109" s="17">
+        <f t="shared" si="9"/>
+        <v>0.53142857142857147</v>
+      </c>
     </row>
-    <row r="110" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>283</v>
       </c>
@@ -59956,8 +62153,28 @@
       <c r="FT110" s="2">
         <v>2</v>
       </c>
+      <c r="FW110">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="FX110">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="FY110">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="FZ110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB110" s="17">
+        <f t="shared" si="9"/>
+        <v>0.53142857142857147</v>
+      </c>
     </row>
-    <row r="111" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>284</v>
       </c>
@@ -60486,8 +62703,28 @@
       <c r="FT111" s="2">
         <v>2</v>
       </c>
+      <c r="FW111">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="FX111">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="FY111">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="FZ111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB111" s="17">
+        <f t="shared" si="9"/>
+        <v>0.53142857142857147</v>
+      </c>
     </row>
-    <row r="112" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>285</v>
       </c>
@@ -61016,8 +63253,28 @@
       <c r="FT112" s="2">
         <v>2</v>
       </c>
+      <c r="FW112">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="FX112">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="FY112">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="FZ112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB112" s="17">
+        <f t="shared" si="9"/>
+        <v>0.53142857142857147</v>
+      </c>
     </row>
-    <row r="113" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>286</v>
       </c>
@@ -61546,8 +63803,28 @@
       <c r="FT113" s="2">
         <v>2</v>
       </c>
+      <c r="FW113">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="FX113">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="FY113">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="FZ113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB113" s="17">
+        <f t="shared" si="9"/>
+        <v>0.53142857142857147</v>
+      </c>
     </row>
-    <row r="114" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>287</v>
       </c>
@@ -62076,8 +64353,28 @@
       <c r="FT114" s="2">
         <v>0</v>
       </c>
+      <c r="FW114">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="FX114">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="FY114">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="FZ114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB114" s="17">
+        <f t="shared" si="9"/>
+        <v>0.6171428571428571</v>
+      </c>
     </row>
-    <row r="115" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>288</v>
       </c>
@@ -62606,8 +64903,28 @@
       <c r="FT115" s="2">
         <v>0</v>
       </c>
+      <c r="FW115">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="FX115">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="FY115">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="FZ115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB115" s="17">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
-    <row r="116" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>289</v>
       </c>
@@ -63136,8 +65453,28 @@
       <c r="FT116" s="2">
         <v>0</v>
       </c>
+      <c r="FW116">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="FX116">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="FY116">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="FZ116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB116" s="17">
+        <f t="shared" si="9"/>
+        <v>0.62857142857142856</v>
+      </c>
     </row>
-    <row r="117" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>290</v>
       </c>
@@ -63666,8 +66003,28 @@
       <c r="FT117" s="2">
         <v>0</v>
       </c>
+      <c r="FW117">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="FX117">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="FY117">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="FZ117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB117" s="17">
+        <f t="shared" si="9"/>
+        <v>0.62857142857142856</v>
+      </c>
     </row>
-    <row r="118" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>291</v>
       </c>
@@ -64196,8 +66553,28 @@
       <c r="FT118" s="2">
         <v>0</v>
       </c>
+      <c r="FW118">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="FX118">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="FY118">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="FZ118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB118" s="17">
+        <f t="shared" si="9"/>
+        <v>0.62857142857142856</v>
+      </c>
     </row>
-    <row r="119" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>292</v>
       </c>
@@ -64726,8 +67103,28 @@
       <c r="FT119" s="2">
         <v>0</v>
       </c>
+      <c r="FW119">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="FX119">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="FY119">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="FZ119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB119" s="17">
+        <f t="shared" si="9"/>
+        <v>0.62857142857142856</v>
+      </c>
     </row>
-    <row r="120" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>293</v>
       </c>
@@ -65256,8 +67653,28 @@
       <c r="FT120" s="2">
         <v>0</v>
       </c>
+      <c r="FW120">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="FX120">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="FY120">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="FZ120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB120" s="17">
+        <f t="shared" si="9"/>
+        <v>0.62857142857142856</v>
+      </c>
     </row>
-    <row r="121" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>294</v>
       </c>
@@ -65786,8 +68203,28 @@
       <c r="FT121" s="2">
         <v>0</v>
       </c>
+      <c r="FW121">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="FX121">
+        <f t="shared" si="6"/>
+        <v>109</v>
+      </c>
+      <c r="FY121">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="FZ121">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB121" s="17">
+        <f t="shared" si="9"/>
+        <v>0.62285714285714289</v>
+      </c>
     </row>
-    <row r="122" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>295</v>
       </c>
@@ -66316,8 +68753,28 @@
       <c r="FT122" s="2">
         <v>0</v>
       </c>
+      <c r="FW122">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="FX122">
+        <f t="shared" si="6"/>
+        <v>109</v>
+      </c>
+      <c r="FY122">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="FZ122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB122" s="17">
+        <f t="shared" si="9"/>
+        <v>0.62285714285714289</v>
+      </c>
     </row>
-    <row r="123" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>296</v>
       </c>
@@ -66846,8 +69303,28 @@
       <c r="FT123" s="2">
         <v>0</v>
       </c>
+      <c r="FW123">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="FX123">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="FY123">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="FZ123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB123" s="17">
+        <f t="shared" si="9"/>
+        <v>0.61142857142857143</v>
+      </c>
     </row>
-    <row r="124" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>297</v>
       </c>
@@ -67376,8 +69853,28 @@
       <c r="FT124" s="2">
         <v>0</v>
       </c>
+      <c r="FW124">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="FX124">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="FY124">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="FZ124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB124" s="17">
+        <f t="shared" si="9"/>
+        <v>0.61142857142857143</v>
+      </c>
     </row>
-    <row r="125" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>298</v>
       </c>
@@ -67906,8 +70403,28 @@
       <c r="FT125" s="2">
         <v>0</v>
       </c>
+      <c r="FW125">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="FX125">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="FY125">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="FZ125">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB125" s="17">
+        <f t="shared" si="9"/>
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="126" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>299</v>
       </c>
@@ -68436,8 +70953,28 @@
       <c r="FT126" s="2">
         <v>0</v>
       </c>
+      <c r="FW126">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="FX126">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="FY126">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="FZ126">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB126" s="17">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="127" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>300</v>
       </c>
@@ -68966,8 +71503,28 @@
       <c r="FT127" s="2">
         <v>0</v>
       </c>
+      <c r="FW127">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="FX127">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="FY127">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="FZ127">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB127" s="17">
+        <f t="shared" si="9"/>
+        <v>0.46285714285714286</v>
+      </c>
     </row>
-    <row r="128" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>301</v>
       </c>
@@ -69496,8 +72053,28 @@
       <c r="FT128" s="2">
         <v>0</v>
       </c>
+      <c r="FW128">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="FX128">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="FY128">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="FZ128">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB128" s="17">
+        <f t="shared" si="9"/>
+        <v>0.46285714285714286</v>
+      </c>
     </row>
-    <row r="129" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>302</v>
       </c>
@@ -70026,8 +72603,28 @@
       <c r="FT129" s="2">
         <v>0</v>
       </c>
+      <c r="FW129">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="FX129">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="FY129">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="FZ129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB129" s="17">
+        <f t="shared" si="9"/>
+        <v>0.46285714285714286</v>
+      </c>
     </row>
-    <row r="130" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>303</v>
       </c>
@@ -70556,8 +73153,28 @@
       <c r="FT130" s="2">
         <v>0</v>
       </c>
+      <c r="FW130">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="FX130">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="FY130">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="FZ130">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="GB130" s="17">
+        <f t="shared" si="9"/>
+        <v>0.46285714285714286</v>
+      </c>
     </row>
-    <row r="131" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>304</v>
       </c>
@@ -71086,8 +73703,28 @@
       <c r="FT131" s="2">
         <v>0</v>
       </c>
+      <c r="FW131">
+        <f t="shared" ref="FW131:FW169" si="10">COUNTIF($B131:$FT131,0)</f>
+        <v>79</v>
+      </c>
+      <c r="FX131">
+        <f t="shared" ref="FX131:FX169" si="11">COUNTIF($B131:$FT131,1)</f>
+        <v>80</v>
+      </c>
+      <c r="FY131">
+        <f t="shared" ref="FY131:FY169" si="12">COUNTIF($B131:$FT131,2)</f>
+        <v>16</v>
+      </c>
+      <c r="FZ131">
+        <f t="shared" ref="FZ131:FZ169" si="13">COUNTIF($B131:$FT131,3)</f>
+        <v>0</v>
+      </c>
+      <c r="GB131" s="17">
+        <f t="shared" ref="GB131:GB169" si="14">FX131/175</f>
+        <v>0.45714285714285713</v>
+      </c>
     </row>
-    <row r="132" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>305</v>
       </c>
@@ -71616,8 +74253,28 @@
       <c r="FT132" s="2">
         <v>0</v>
       </c>
+      <c r="FW132">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="FX132">
+        <f t="shared" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="FY132">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="FZ132">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB132" s="17">
+        <f t="shared" si="14"/>
+        <v>0.5485714285714286</v>
+      </c>
     </row>
-    <row r="133" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>306</v>
       </c>
@@ -72146,8 +74803,28 @@
       <c r="FT133" s="2">
         <v>0</v>
       </c>
+      <c r="FW133">
+        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+      <c r="FX133">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="FY133">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="FZ133">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB133" s="17">
+        <f t="shared" si="14"/>
+        <v>0.26285714285714284</v>
+      </c>
     </row>
-    <row r="134" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>307</v>
       </c>
@@ -72676,8 +75353,28 @@
       <c r="FT134" s="2">
         <v>0</v>
       </c>
+      <c r="FW134">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="FX134">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="FY134">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="FZ134">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB134" s="17">
+        <f t="shared" si="14"/>
+        <v>0.37142857142857144</v>
+      </c>
     </row>
-    <row r="135" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>308</v>
       </c>
@@ -73206,8 +75903,28 @@
       <c r="FT135" s="2">
         <v>0</v>
       </c>
+      <c r="FW135">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="FX135">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="FY135">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="FZ135">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB135" s="17">
+        <f t="shared" si="14"/>
+        <v>0.37142857142857144</v>
+      </c>
     </row>
-    <row r="136" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>309</v>
       </c>
@@ -73736,8 +76453,28 @@
       <c r="FT136" s="2">
         <v>0</v>
       </c>
+      <c r="FW136">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="FX136">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="FY136">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="FZ136">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB136" s="17">
+        <f t="shared" si="14"/>
+        <v>0.37142857142857144</v>
+      </c>
     </row>
-    <row r="137" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>310</v>
       </c>
@@ -74266,8 +77003,28 @@
       <c r="FT137" s="2">
         <v>0</v>
       </c>
+      <c r="FW137">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="FX137">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="FY137">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="FZ137">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB137" s="17">
+        <f t="shared" si="14"/>
+        <v>0.37142857142857144</v>
+      </c>
     </row>
-    <row r="138" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>311</v>
       </c>
@@ -74796,8 +77553,28 @@
       <c r="FT138" s="2">
         <v>0</v>
       </c>
+      <c r="FW138">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="FX138">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="FY138">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="FZ138">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB138" s="17">
+        <f t="shared" si="14"/>
+        <v>0.37142857142857144</v>
+      </c>
     </row>
-    <row r="139" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>312</v>
       </c>
@@ -75326,8 +78103,28 @@
       <c r="FT139" s="2">
         <v>0</v>
       </c>
+      <c r="FW139">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="FX139">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="FY139">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="FZ139">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB139" s="17">
+        <f t="shared" si="14"/>
+        <v>0.52571428571428569</v>
+      </c>
     </row>
-    <row r="140" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>313</v>
       </c>
@@ -75856,8 +78653,28 @@
       <c r="FT140" s="2">
         <v>0</v>
       </c>
+      <c r="FW140">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="FX140">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="FY140">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="FZ140">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB140" s="17">
+        <f t="shared" si="14"/>
+        <v>0.49714285714285716</v>
+      </c>
     </row>
-    <row r="141" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>314</v>
       </c>
@@ -76386,8 +79203,28 @@
       <c r="FT141" s="2">
         <v>0</v>
       </c>
+      <c r="FW141">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="FX141">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="FY141">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="FZ141">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB141" s="17">
+        <f t="shared" si="14"/>
+        <v>0.36571428571428571</v>
+      </c>
     </row>
-    <row r="142" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>315</v>
       </c>
@@ -76916,8 +79753,28 @@
       <c r="FT142" s="2">
         <v>0</v>
       </c>
+      <c r="FW142">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="FX142">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="FY142">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="FZ142">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB142" s="17">
+        <f t="shared" si="14"/>
+        <v>0.36571428571428571</v>
+      </c>
     </row>
-    <row r="143" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>316</v>
       </c>
@@ -77446,8 +80303,28 @@
       <c r="FT143" s="2">
         <v>0</v>
       </c>
+      <c r="FW143">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+      <c r="FX143">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="FY143">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="FZ143">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB143" s="17">
+        <f t="shared" si="14"/>
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="144" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>317</v>
       </c>
@@ -77976,8 +80853,28 @@
       <c r="FT144" s="2">
         <v>0</v>
       </c>
+      <c r="FW144">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="FX144">
+        <f t="shared" si="11"/>
+        <v>116</v>
+      </c>
+      <c r="FY144">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="FZ144">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB144" s="17">
+        <f t="shared" si="14"/>
+        <v>0.66285714285714281</v>
+      </c>
     </row>
-    <row r="145" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>318</v>
       </c>
@@ -78506,8 +81403,28 @@
       <c r="FT145" s="2">
         <v>0</v>
       </c>
+      <c r="FW145">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="FX145">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="FY145">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="FZ145">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB145" s="17">
+        <f t="shared" si="14"/>
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="146" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>319</v>
       </c>
@@ -79036,8 +81953,28 @@
       <c r="FT146" s="2">
         <v>0</v>
       </c>
+      <c r="FW146">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="FX146">
+        <f t="shared" si="11"/>
+        <v>103</v>
+      </c>
+      <c r="FY146">
+        <f t="shared" si="12"/>
+        <v>44</v>
+      </c>
+      <c r="FZ146">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB146" s="17">
+        <f t="shared" si="14"/>
+        <v>0.58857142857142852</v>
+      </c>
     </row>
-    <row r="147" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>320</v>
       </c>
@@ -79566,8 +82503,28 @@
       <c r="FT147" s="2">
         <v>0</v>
       </c>
+      <c r="FW147">
+        <f t="shared" si="10"/>
+        <v>143</v>
+      </c>
+      <c r="FX147">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="FY147">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="FZ147">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB147" s="17">
+        <f t="shared" si="14"/>
+        <v>0.1657142857142857</v>
+      </c>
     </row>
-    <row r="148" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>321</v>
       </c>
@@ -80096,8 +83053,28 @@
       <c r="FT148" s="2">
         <v>0</v>
       </c>
+      <c r="FW148">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="FX148">
+        <f t="shared" si="11"/>
+        <v>107</v>
+      </c>
+      <c r="FY148">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="FZ148">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB148" s="17">
+        <f t="shared" si="14"/>
+        <v>0.61142857142857143</v>
+      </c>
     </row>
-    <row r="149" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>322</v>
       </c>
@@ -80626,8 +83603,28 @@
       <c r="FT149" s="2">
         <v>0</v>
       </c>
+      <c r="FW149">
+        <f t="shared" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="FX149">
+        <f t="shared" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="FY149">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="FZ149">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB149" s="17">
+        <f t="shared" si="14"/>
+        <v>0.54285714285714282</v>
+      </c>
     </row>
-    <row r="150" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>323</v>
       </c>
@@ -81156,8 +84153,28 @@
       <c r="FT150" s="2">
         <v>0</v>
       </c>
+      <c r="FW150">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="FX150">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="FY150">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="FZ150">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB150" s="17">
+        <f t="shared" si="14"/>
+        <v>0.66857142857142859</v>
+      </c>
     </row>
-    <row r="151" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>324</v>
       </c>
@@ -81686,8 +84703,28 @@
       <c r="FT151" s="2">
         <v>0</v>
       </c>
+      <c r="FW151">
+        <f t="shared" si="10"/>
+        <v>175</v>
+      </c>
+      <c r="FX151">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="FY151">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="FZ151">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB151" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>325</v>
       </c>
@@ -82216,8 +85253,28 @@
       <c r="FT152" s="2">
         <v>0</v>
       </c>
+      <c r="FW152">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="FX152">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="FY152">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="FZ152">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB152" s="17">
+        <f t="shared" si="14"/>
+        <v>0.30857142857142855</v>
+      </c>
     </row>
-    <row r="153" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>326</v>
       </c>
@@ -82746,8 +85803,28 @@
       <c r="FT153" s="2">
         <v>0</v>
       </c>
+      <c r="FW153">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="FX153">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="FY153">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="FZ153">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB153" s="17">
+        <f t="shared" si="14"/>
+        <v>0.29714285714285715</v>
+      </c>
     </row>
-    <row r="154" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>327</v>
       </c>
@@ -83276,8 +86353,28 @@
       <c r="FT154" s="2">
         <v>0</v>
       </c>
+      <c r="FW154">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="FX154">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="FY154">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="FZ154">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB154" s="17">
+        <f t="shared" si="14"/>
+        <v>0.30285714285714288</v>
+      </c>
     </row>
-    <row r="155" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>328</v>
       </c>
@@ -83806,8 +86903,28 @@
       <c r="FT155" s="2">
         <v>0</v>
       </c>
+      <c r="FW155">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="FX155">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="FY155">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="FZ155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB155" s="17">
+        <f t="shared" si="14"/>
+        <v>0.29714285714285715</v>
+      </c>
     </row>
-    <row r="156" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>329</v>
       </c>
@@ -84336,8 +87453,28 @@
       <c r="FT156" s="2">
         <v>0</v>
       </c>
+      <c r="FW156">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="FX156">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="FY156">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="FZ156">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB156" s="17">
+        <f t="shared" si="14"/>
+        <v>0.29714285714285715</v>
+      </c>
     </row>
-    <row r="157" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>330</v>
       </c>
@@ -84866,8 +88003,28 @@
       <c r="FT157" s="2">
         <v>0</v>
       </c>
+      <c r="FW157">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="FX157">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="FY157">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="FZ157">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB157" s="17">
+        <f t="shared" si="14"/>
+        <v>0.30857142857142855</v>
+      </c>
     </row>
-    <row r="158" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>331</v>
       </c>
@@ -85396,8 +88553,28 @@
       <c r="FT158" s="2">
         <v>0</v>
       </c>
+      <c r="FW158">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="FX158">
+        <f t="shared" si="11"/>
+        <v>118</v>
+      </c>
+      <c r="FY158">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="FZ158">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB158" s="17">
+        <f t="shared" si="14"/>
+        <v>0.67428571428571427</v>
+      </c>
     </row>
-    <row r="159" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>332</v>
       </c>
@@ -85926,8 +89103,28 @@
       <c r="FT159" s="2">
         <v>0</v>
       </c>
+      <c r="FW159">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="FX159">
+        <f t="shared" si="11"/>
+        <v>118</v>
+      </c>
+      <c r="FY159">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="FZ159">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB159" s="17">
+        <f t="shared" si="14"/>
+        <v>0.67428571428571427</v>
+      </c>
     </row>
-    <row r="160" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>333</v>
       </c>
@@ -86456,8 +89653,28 @@
       <c r="FT160" s="2">
         <v>0</v>
       </c>
+      <c r="FW160">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="FX160">
+        <f t="shared" si="11"/>
+        <v>118</v>
+      </c>
+      <c r="FY160">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="FZ160">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB160" s="17">
+        <f t="shared" si="14"/>
+        <v>0.67428571428571427</v>
+      </c>
     </row>
-    <row r="161" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>334</v>
       </c>
@@ -86986,8 +90203,28 @@
       <c r="FT161" s="2">
         <v>0</v>
       </c>
+      <c r="FW161">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="FX161">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="FY161">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="FZ161">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB161" s="17">
+        <f t="shared" si="14"/>
+        <v>0.35428571428571426</v>
+      </c>
     </row>
-    <row r="162" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>335</v>
       </c>
@@ -87516,8 +90753,28 @@
       <c r="FT162" s="2">
         <v>0</v>
       </c>
+      <c r="FW162">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="FX162">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="FY162">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="FZ162">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB162" s="17">
+        <f t="shared" si="14"/>
+        <v>0.36571428571428571</v>
+      </c>
     </row>
-    <row r="163" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>336</v>
       </c>
@@ -88046,8 +91303,28 @@
       <c r="FT163" s="2">
         <v>0</v>
       </c>
+      <c r="FW163">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="FX163">
+        <f t="shared" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="FY163">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="FZ163">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB163" s="17">
+        <f t="shared" si="14"/>
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="164" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>337</v>
       </c>
@@ -88576,8 +91853,28 @@
       <c r="FT164" s="2">
         <v>0</v>
       </c>
+      <c r="FW164">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="FX164">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="FY164">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="FZ164">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB164" s="17">
+        <f t="shared" si="14"/>
+        <v>0.68571428571428572</v>
+      </c>
     </row>
-    <row r="165" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>338</v>
       </c>
@@ -89106,8 +92403,28 @@
       <c r="FT165" s="2">
         <v>0</v>
       </c>
+      <c r="FW165">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
+      <c r="FX165">
+        <f t="shared" si="11"/>
+        <v>43</v>
+      </c>
+      <c r="FY165">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="FZ165">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB165" s="17">
+        <f t="shared" si="14"/>
+        <v>0.24571428571428572</v>
+      </c>
     </row>
-    <row r="166" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>339</v>
       </c>
@@ -89636,8 +92953,28 @@
       <c r="FT166" s="2">
         <v>0</v>
       </c>
+      <c r="FW166">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
+      <c r="FX166">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="FY166">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="FZ166">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB166" s="17">
+        <f t="shared" si="14"/>
+        <v>0.26857142857142857</v>
+      </c>
     </row>
-    <row r="167" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>340</v>
       </c>
@@ -90166,8 +93503,28 @@
       <c r="FT167" s="2">
         <v>0</v>
       </c>
+      <c r="FW167">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
+      <c r="FX167">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="FY167">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="FZ167">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB167" s="17">
+        <f t="shared" si="14"/>
+        <v>0.23428571428571429</v>
+      </c>
     </row>
-    <row r="168" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>341</v>
       </c>
@@ -90696,8 +94053,28 @@
       <c r="FT168" s="2">
         <v>0</v>
       </c>
+      <c r="FW168">
+        <f t="shared" si="10"/>
+        <v>43</v>
+      </c>
+      <c r="FX168">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="FY168">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="FZ168">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB168" s="17">
+        <f t="shared" si="14"/>
+        <v>0.6171428571428571</v>
+      </c>
     </row>
-    <row r="169" spans="1:176" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>342</v>
       </c>
@@ -91225,6 +94602,3580 @@
       </c>
       <c r="FT169" s="2">
         <v>0</v>
+      </c>
+      <c r="FW169">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="FX169">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="FY169">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="FZ169">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="GB169" s="17">
+        <f t="shared" si="14"/>
+        <v>0.49714285714285716</v>
+      </c>
+    </row>
+    <row r="171" spans="1:184" x14ac:dyDescent="0.2">
+      <c r="A171" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="172" spans="1:184" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <f>COUNTIF(B$2:B$169,0)</f>
+        <v>168</v>
+      </c>
+      <c r="C172">
+        <f t="shared" ref="C172:BN172" si="15">COUNTIF(C$2:C$169,0)</f>
+        <v>161</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="15"/>
+        <v>168</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="15"/>
+        <v>168</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="15"/>
+        <v>167</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="15"/>
+        <v>166</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="15"/>
+        <v>166</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="15"/>
+        <v>167</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="15"/>
+        <v>166</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="15"/>
+        <v>164</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="15"/>
+        <v>166</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="15"/>
+        <v>166</v>
+      </c>
+      <c r="P172">
+        <f t="shared" si="15"/>
+        <v>166</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" si="15"/>
+        <v>163</v>
+      </c>
+      <c r="R172">
+        <f t="shared" si="15"/>
+        <v>158</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="15"/>
+        <v>158</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="15"/>
+        <v>142</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="15"/>
+        <v>135</v>
+      </c>
+      <c r="V172">
+        <f t="shared" si="15"/>
+        <v>137</v>
+      </c>
+      <c r="W172">
+        <f t="shared" si="15"/>
+        <v>137</v>
+      </c>
+      <c r="X172">
+        <f t="shared" si="15"/>
+        <v>135</v>
+      </c>
+      <c r="Y172">
+        <f t="shared" si="15"/>
+        <v>130</v>
+      </c>
+      <c r="Z172">
+        <f t="shared" si="15"/>
+        <v>127</v>
+      </c>
+      <c r="AA172">
+        <f t="shared" si="15"/>
+        <v>126</v>
+      </c>
+      <c r="AB172">
+        <f t="shared" si="15"/>
+        <v>118</v>
+      </c>
+      <c r="AC172">
+        <f t="shared" si="15"/>
+        <v>125</v>
+      </c>
+      <c r="AD172">
+        <f t="shared" si="15"/>
+        <v>125</v>
+      </c>
+      <c r="AE172">
+        <f t="shared" si="15"/>
+        <v>132</v>
+      </c>
+      <c r="AF172">
+        <f t="shared" si="15"/>
+        <v>137</v>
+      </c>
+      <c r="AG172">
+        <f t="shared" si="15"/>
+        <v>137</v>
+      </c>
+      <c r="AH172">
+        <f t="shared" si="15"/>
+        <v>142</v>
+      </c>
+      <c r="AI172">
+        <f t="shared" si="15"/>
+        <v>142</v>
+      </c>
+      <c r="AJ172">
+        <f t="shared" si="15"/>
+        <v>142</v>
+      </c>
+      <c r="AK172">
+        <f t="shared" si="15"/>
+        <v>142</v>
+      </c>
+      <c r="AL172">
+        <f t="shared" si="15"/>
+        <v>142</v>
+      </c>
+      <c r="AM172">
+        <f t="shared" si="15"/>
+        <v>142</v>
+      </c>
+      <c r="AN172">
+        <f t="shared" si="15"/>
+        <v>133</v>
+      </c>
+      <c r="AO172">
+        <f t="shared" si="15"/>
+        <v>133</v>
+      </c>
+      <c r="AP172">
+        <f t="shared" si="15"/>
+        <v>140</v>
+      </c>
+      <c r="AQ172">
+        <f t="shared" si="15"/>
+        <v>142</v>
+      </c>
+      <c r="AR172">
+        <f t="shared" si="15"/>
+        <v>142</v>
+      </c>
+      <c r="AS172">
+        <f t="shared" si="15"/>
+        <v>143</v>
+      </c>
+      <c r="AT172">
+        <f t="shared" si="15"/>
+        <v>143</v>
+      </c>
+      <c r="AU172">
+        <f t="shared" si="15"/>
+        <v>143</v>
+      </c>
+      <c r="AV172">
+        <f t="shared" si="15"/>
+        <v>146</v>
+      </c>
+      <c r="AW172">
+        <f t="shared" si="15"/>
+        <v>148</v>
+      </c>
+      <c r="AX172">
+        <f t="shared" si="15"/>
+        <v>148</v>
+      </c>
+      <c r="AY172">
+        <f t="shared" si="15"/>
+        <v>149</v>
+      </c>
+      <c r="AZ172">
+        <f t="shared" si="15"/>
+        <v>149</v>
+      </c>
+      <c r="BA172">
+        <f t="shared" si="15"/>
+        <v>149</v>
+      </c>
+      <c r="BB172">
+        <f t="shared" si="15"/>
+        <v>151</v>
+      </c>
+      <c r="BC172">
+        <f t="shared" si="15"/>
+        <v>151</v>
+      </c>
+      <c r="BD172">
+        <f t="shared" si="15"/>
+        <v>155</v>
+      </c>
+      <c r="BE172">
+        <f t="shared" si="15"/>
+        <v>157</v>
+      </c>
+      <c r="BF172">
+        <f t="shared" si="15"/>
+        <v>157</v>
+      </c>
+      <c r="BG172">
+        <f t="shared" si="15"/>
+        <v>157</v>
+      </c>
+      <c r="BH172">
+        <f t="shared" si="15"/>
+        <v>157</v>
+      </c>
+      <c r="BI172">
+        <f t="shared" si="15"/>
+        <v>134</v>
+      </c>
+      <c r="BJ172">
+        <f t="shared" si="15"/>
+        <v>115</v>
+      </c>
+      <c r="BK172">
+        <f t="shared" si="15"/>
+        <v>115</v>
+      </c>
+      <c r="BL172">
+        <f t="shared" si="15"/>
+        <v>116</v>
+      </c>
+      <c r="BM172">
+        <f t="shared" si="15"/>
+        <v>116</v>
+      </c>
+      <c r="BN172">
+        <f t="shared" si="15"/>
+        <v>116</v>
+      </c>
+      <c r="BO172">
+        <f t="shared" ref="BO172:DZ172" si="16">COUNTIF(BO$2:BO$169,0)</f>
+        <v>99</v>
+      </c>
+      <c r="BP172">
+        <f t="shared" si="16"/>
+        <v>99</v>
+      </c>
+      <c r="BQ172">
+        <f t="shared" si="16"/>
+        <v>99</v>
+      </c>
+      <c r="BR172">
+        <f t="shared" si="16"/>
+        <v>99</v>
+      </c>
+      <c r="BS172">
+        <f t="shared" si="16"/>
+        <v>99</v>
+      </c>
+      <c r="BT172">
+        <f t="shared" si="16"/>
+        <v>99</v>
+      </c>
+      <c r="BU172">
+        <f t="shared" si="16"/>
+        <v>99</v>
+      </c>
+      <c r="BV172">
+        <f t="shared" si="16"/>
+        <v>99</v>
+      </c>
+      <c r="BW172">
+        <f t="shared" si="16"/>
+        <v>94</v>
+      </c>
+      <c r="BX172">
+        <f t="shared" si="16"/>
+        <v>94</v>
+      </c>
+      <c r="BY172">
+        <f t="shared" si="16"/>
+        <v>94</v>
+      </c>
+      <c r="BZ172">
+        <f t="shared" si="16"/>
+        <v>99</v>
+      </c>
+      <c r="CA172">
+        <f t="shared" si="16"/>
+        <v>108</v>
+      </c>
+      <c r="CB172">
+        <f t="shared" si="16"/>
+        <v>108</v>
+      </c>
+      <c r="CC172">
+        <f t="shared" si="16"/>
+        <v>108</v>
+      </c>
+      <c r="CD172">
+        <f t="shared" si="16"/>
+        <v>108</v>
+      </c>
+      <c r="CE172">
+        <f t="shared" si="16"/>
+        <v>106</v>
+      </c>
+      <c r="CF172">
+        <f t="shared" si="16"/>
+        <v>106</v>
+      </c>
+      <c r="CG172">
+        <f t="shared" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="CH172">
+        <f t="shared" si="16"/>
+        <v>99</v>
+      </c>
+      <c r="CI172">
+        <f t="shared" si="16"/>
+        <v>94</v>
+      </c>
+      <c r="CJ172">
+        <f t="shared" si="16"/>
+        <v>94</v>
+      </c>
+      <c r="CK172">
+        <f t="shared" si="16"/>
+        <v>94</v>
+      </c>
+      <c r="CL172">
+        <f t="shared" si="16"/>
+        <v>88</v>
+      </c>
+      <c r="CM172">
+        <f t="shared" si="16"/>
+        <v>86</v>
+      </c>
+      <c r="CN172">
+        <f t="shared" si="16"/>
+        <v>88</v>
+      </c>
+      <c r="CO172">
+        <f t="shared" si="16"/>
+        <v>88</v>
+      </c>
+      <c r="CP172">
+        <f t="shared" si="16"/>
+        <v>83</v>
+      </c>
+      <c r="CQ172">
+        <f t="shared" si="16"/>
+        <v>79</v>
+      </c>
+      <c r="CR172">
+        <f t="shared" si="16"/>
+        <v>79</v>
+      </c>
+      <c r="CS172">
+        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="CT172">
+        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="CU172">
+        <f t="shared" si="16"/>
+        <v>74</v>
+      </c>
+      <c r="CV172">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="CW172">
+        <f t="shared" si="16"/>
+        <v>67</v>
+      </c>
+      <c r="CX172">
+        <f t="shared" si="16"/>
+        <v>61</v>
+      </c>
+      <c r="CY172">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="CZ172">
+        <f t="shared" si="16"/>
+        <v>59</v>
+      </c>
+      <c r="DA172">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="DB172">
+        <f t="shared" si="16"/>
+        <v>53</v>
+      </c>
+      <c r="DC172">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="DD172">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="DE172">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="DF172">
+        <f t="shared" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="DG172">
+        <f t="shared" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="DH172">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="DI172">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="DJ172">
+        <f t="shared" si="16"/>
+        <v>47</v>
+      </c>
+      <c r="DK172">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="DL172">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="DM172">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="DN172">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="DO172">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="DP172">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="DQ172">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="DR172">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="DS172">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="DT172">
+        <f t="shared" si="16"/>
+        <v>36</v>
+      </c>
+      <c r="DU172">
+        <f t="shared" si="16"/>
+        <v>47</v>
+      </c>
+      <c r="DV172">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="DW172">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="DX172">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="DY172">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="DZ172">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="EA172">
+        <f t="shared" ref="EA172:FT172" si="17">COUNTIF(EA$2:EA$169,0)</f>
+        <v>6</v>
+      </c>
+      <c r="EB172">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="EC172">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="ED172">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="EE172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="EF172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="EG172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="EH172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="EI172">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="EJ172">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="EK172">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="EL172">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="EM172">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="EN172">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="EO172">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="EP172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="EQ172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="ER172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="ES172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="ET172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="EU172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="EV172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="EW172">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="EX172">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="EY172">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="EZ172">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="FA172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="FB172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="FC172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="FD172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="FE172">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="FF172">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="FG172">
+        <f t="shared" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="FH172">
+        <f t="shared" si="17"/>
+        <v>80</v>
+      </c>
+      <c r="FI172">
+        <f t="shared" si="17"/>
+        <v>82</v>
+      </c>
+      <c r="FJ172">
+        <f t="shared" si="17"/>
+        <v>103</v>
+      </c>
+      <c r="FK172">
+        <f t="shared" si="17"/>
+        <v>123</v>
+      </c>
+      <c r="FL172">
+        <f t="shared" si="17"/>
+        <v>125</v>
+      </c>
+      <c r="FM172">
+        <f t="shared" si="17"/>
+        <v>127</v>
+      </c>
+      <c r="FN172">
+        <f t="shared" si="17"/>
+        <v>129</v>
+      </c>
+      <c r="FO172">
+        <f t="shared" si="17"/>
+        <v>129</v>
+      </c>
+      <c r="FP172">
+        <f t="shared" si="17"/>
+        <v>142</v>
+      </c>
+      <c r="FQ172">
+        <f t="shared" si="17"/>
+        <v>142</v>
+      </c>
+      <c r="FR172">
+        <f t="shared" si="17"/>
+        <v>163</v>
+      </c>
+      <c r="FS172">
+        <f t="shared" si="17"/>
+        <v>163</v>
+      </c>
+      <c r="FT172">
+        <f t="shared" si="17"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="173" spans="1:184" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <f>COUNTIF(B$2:B$169,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ref="C173:BN173" si="18">COUNTIF(C$2:C$169,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="P173">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="R173">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="S173">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="V173">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="W173">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="X173">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="Y173">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="Z173">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="AA173">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="AB173">
+        <f t="shared" si="18"/>
+        <v>35</v>
+      </c>
+      <c r="AC173">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="AD173">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="AE173">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="AF173">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="AG173">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="AH173">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="AI173">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="AJ173">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="AK173">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="AL173">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="AM173">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="AN173">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="AO173">
+        <f t="shared" si="18"/>
+        <v>26</v>
+      </c>
+      <c r="AP173">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="AQ173">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="AR173">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="AS173">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="AT173">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="AU173">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="AV173">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="AW173">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="AX173">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="AY173">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="AZ173">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="BA173">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="BB173">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="BC173">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="BD173">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="BE173">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="BF173">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="BG173">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="BH173">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="BI173">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="BJ173">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="BK173">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="BL173">
+        <f t="shared" si="18"/>
+        <v>51</v>
+      </c>
+      <c r="BM173">
+        <f t="shared" si="18"/>
+        <v>51</v>
+      </c>
+      <c r="BN173">
+        <f t="shared" si="18"/>
+        <v>51</v>
+      </c>
+      <c r="BO173">
+        <f t="shared" ref="BO173:DZ173" si="19">COUNTIF(BO$2:BO$169,1)</f>
+        <v>51</v>
+      </c>
+      <c r="BP173">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+      <c r="BQ173">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="BR173">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+      <c r="BS173">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+      <c r="BT173">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+      <c r="BU173">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+      <c r="BV173">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+      <c r="BW173">
+        <f t="shared" si="19"/>
+        <v>43</v>
+      </c>
+      <c r="BX173">
+        <f t="shared" si="19"/>
+        <v>42</v>
+      </c>
+      <c r="BY173">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="BZ173">
+        <f t="shared" si="19"/>
+        <v>51</v>
+      </c>
+      <c r="CA173">
+        <f t="shared" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="CB173">
+        <f t="shared" si="19"/>
+        <v>48</v>
+      </c>
+      <c r="CC173">
+        <f t="shared" si="19"/>
+        <v>55</v>
+      </c>
+      <c r="CD173">
+        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="CE173">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="CF173">
+        <f t="shared" si="19"/>
+        <v>56</v>
+      </c>
+      <c r="CG173">
+        <f t="shared" si="19"/>
+        <v>56</v>
+      </c>
+      <c r="CH173">
+        <f t="shared" si="19"/>
+        <v>56</v>
+      </c>
+      <c r="CI173">
+        <f t="shared" si="19"/>
+        <v>66</v>
+      </c>
+      <c r="CJ173">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+      <c r="CK173">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+      <c r="CL173">
+        <f t="shared" si="19"/>
+        <v>66</v>
+      </c>
+      <c r="CM173">
+        <f t="shared" si="19"/>
+        <v>72</v>
+      </c>
+      <c r="CN173">
+        <f t="shared" si="19"/>
+        <v>79</v>
+      </c>
+      <c r="CO173">
+        <f t="shared" si="19"/>
+        <v>79</v>
+      </c>
+      <c r="CP173">
+        <f t="shared" si="19"/>
+        <v>79</v>
+      </c>
+      <c r="CQ173">
+        <f t="shared" si="19"/>
+        <v>66</v>
+      </c>
+      <c r="CR173">
+        <f t="shared" si="19"/>
+        <v>53</v>
+      </c>
+      <c r="CS173">
+        <f t="shared" si="19"/>
+        <v>88</v>
+      </c>
+      <c r="CT173">
+        <f t="shared" si="19"/>
+        <v>75</v>
+      </c>
+      <c r="CU173">
+        <f t="shared" si="19"/>
+        <v>90</v>
+      </c>
+      <c r="CV173">
+        <f t="shared" si="19"/>
+        <v>88</v>
+      </c>
+      <c r="CW173">
+        <f t="shared" si="19"/>
+        <v>91</v>
+      </c>
+      <c r="CX173">
+        <f t="shared" si="19"/>
+        <v>94</v>
+      </c>
+      <c r="CY173">
+        <f t="shared" si="19"/>
+        <v>87</v>
+      </c>
+      <c r="CZ173">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="DA173">
+        <f t="shared" si="19"/>
+        <v>90</v>
+      </c>
+      <c r="DB173">
+        <f t="shared" si="19"/>
+        <v>102</v>
+      </c>
+      <c r="DC173">
+        <f t="shared" si="19"/>
+        <v>101</v>
+      </c>
+      <c r="DD173">
+        <f t="shared" si="19"/>
+        <v>110</v>
+      </c>
+      <c r="DE173">
+        <f t="shared" si="19"/>
+        <v>102</v>
+      </c>
+      <c r="DF173">
+        <f t="shared" si="19"/>
+        <v>110</v>
+      </c>
+      <c r="DG173">
+        <f t="shared" si="19"/>
+        <v>107</v>
+      </c>
+      <c r="DH173">
+        <f t="shared" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="DI173">
+        <f t="shared" si="19"/>
+        <v>97</v>
+      </c>
+      <c r="DJ173">
+        <f t="shared" si="19"/>
+        <v>98</v>
+      </c>
+      <c r="DK173">
+        <f t="shared" si="19"/>
+        <v>112</v>
+      </c>
+      <c r="DL173">
+        <f t="shared" si="19"/>
+        <v>117</v>
+      </c>
+      <c r="DM173">
+        <f t="shared" si="19"/>
+        <v>123</v>
+      </c>
+      <c r="DN173">
+        <f t="shared" si="19"/>
+        <v>121</v>
+      </c>
+      <c r="DO173">
+        <f t="shared" si="19"/>
+        <v>92</v>
+      </c>
+      <c r="DP173">
+        <f t="shared" si="19"/>
+        <v>117</v>
+      </c>
+      <c r="DQ173">
+        <f t="shared" si="19"/>
+        <v>120</v>
+      </c>
+      <c r="DR173">
+        <f t="shared" si="19"/>
+        <v>120</v>
+      </c>
+      <c r="DS173">
+        <f t="shared" si="19"/>
+        <v>123</v>
+      </c>
+      <c r="DT173">
+        <f t="shared" si="19"/>
+        <v>86</v>
+      </c>
+      <c r="DU173">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="DV173">
+        <f t="shared" si="19"/>
+        <v>70</v>
+      </c>
+      <c r="DW173">
+        <f t="shared" si="19"/>
+        <v>110</v>
+      </c>
+      <c r="DX173">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="DY173">
+        <f t="shared" si="19"/>
+        <v>159</v>
+      </c>
+      <c r="DZ173">
+        <f t="shared" si="19"/>
+        <v>161</v>
+      </c>
+      <c r="EA173">
+        <f t="shared" ref="EA173:FT173" si="20">COUNTIF(EA$2:EA$169,1)</f>
+        <v>153</v>
+      </c>
+      <c r="EB173">
+        <f t="shared" si="20"/>
+        <v>152</v>
+      </c>
+      <c r="EC173">
+        <f t="shared" si="20"/>
+        <v>143</v>
+      </c>
+      <c r="ED173">
+        <f t="shared" si="20"/>
+        <v>166</v>
+      </c>
+      <c r="EE173">
+        <f t="shared" si="20"/>
+        <v>167</v>
+      </c>
+      <c r="EF173">
+        <f t="shared" si="20"/>
+        <v>158</v>
+      </c>
+      <c r="EG173">
+        <f t="shared" si="20"/>
+        <v>166</v>
+      </c>
+      <c r="EH173">
+        <f t="shared" si="20"/>
+        <v>82</v>
+      </c>
+      <c r="EI173">
+        <f t="shared" si="20"/>
+        <v>113</v>
+      </c>
+      <c r="EJ173">
+        <f t="shared" si="20"/>
+        <v>161</v>
+      </c>
+      <c r="EK173">
+        <f t="shared" si="20"/>
+        <v>159</v>
+      </c>
+      <c r="EL173">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="EM173">
+        <f t="shared" si="20"/>
+        <v>152</v>
+      </c>
+      <c r="EN173">
+        <f t="shared" si="20"/>
+        <v>148</v>
+      </c>
+      <c r="EO173">
+        <f t="shared" si="20"/>
+        <v>159</v>
+      </c>
+      <c r="EP173">
+        <f t="shared" si="20"/>
+        <v>153</v>
+      </c>
+      <c r="EQ173">
+        <f t="shared" si="20"/>
+        <v>148</v>
+      </c>
+      <c r="ER173">
+        <f t="shared" si="20"/>
+        <v>160</v>
+      </c>
+      <c r="ES173">
+        <f t="shared" si="20"/>
+        <v>162</v>
+      </c>
+      <c r="ET173">
+        <f t="shared" si="20"/>
+        <v>161</v>
+      </c>
+      <c r="EU173">
+        <f t="shared" si="20"/>
+        <v>158</v>
+      </c>
+      <c r="EV173">
+        <f t="shared" si="20"/>
+        <v>161</v>
+      </c>
+      <c r="EW173">
+        <f t="shared" si="20"/>
+        <v>161</v>
+      </c>
+      <c r="EX173">
+        <f t="shared" si="20"/>
+        <v>140</v>
+      </c>
+      <c r="EY173">
+        <f t="shared" si="20"/>
+        <v>140</v>
+      </c>
+      <c r="EZ173">
+        <f t="shared" si="20"/>
+        <v>143</v>
+      </c>
+      <c r="FA173">
+        <f t="shared" si="20"/>
+        <v>142</v>
+      </c>
+      <c r="FB173">
+        <f t="shared" si="20"/>
+        <v>167</v>
+      </c>
+      <c r="FC173">
+        <f t="shared" si="20"/>
+        <v>167</v>
+      </c>
+      <c r="FD173">
+        <f t="shared" si="20"/>
+        <v>167</v>
+      </c>
+      <c r="FE173">
+        <f t="shared" si="20"/>
+        <v>144</v>
+      </c>
+      <c r="FF173">
+        <f t="shared" si="20"/>
+        <v>56</v>
+      </c>
+      <c r="FG173">
+        <f t="shared" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="FH173">
+        <f t="shared" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="FI173">
+        <f t="shared" si="20"/>
+        <v>56</v>
+      </c>
+      <c r="FJ173">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="FK173">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="FL173">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="FM173">
+        <f t="shared" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="FN173">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="FO173">
+        <f t="shared" si="20"/>
+        <v>26</v>
+      </c>
+      <c r="FP173">
+        <f t="shared" si="20"/>
+        <v>26</v>
+      </c>
+      <c r="FQ173">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="FR173">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="FS173">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="FT173">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:184" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2</v>
+      </c>
+      <c r="B174">
+        <f>COUNTIF(B$2:B$169,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ref="C174:BN174" si="21">COUNTIF(C$2:C$169,2)</f>
+        <v>7</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="U174">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="V174">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="W174">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="X174">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="Y174">
+        <f t="shared" si="21"/>
+        <v>28</v>
+      </c>
+      <c r="Z174">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="AA174">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="AB174">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="AC174">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="AD174">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AE174">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="AF174">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AG174">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="AH174">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AI174">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="AJ174">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="AK174">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="AL174">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="AM174">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AN174">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="AO174">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="AP174">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AQ174">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AR174">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AS174">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AT174">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AU174">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AV174">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AW174">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AX174">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AY174">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AZ174">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="BA174">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="BB174">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="BC174">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="BD174">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="BE174">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="BF174">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="BG174">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="BH174">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="BI174">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="BJ174">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="BK174">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="BL174">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="BM174">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="BN174">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="BO174">
+        <f t="shared" ref="BO174:DZ174" si="22">COUNTIF(BO$2:BO$169,2)</f>
+        <v>18</v>
+      </c>
+      <c r="BP174">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="BQ174">
+        <f t="shared" si="22"/>
+        <v>31</v>
+      </c>
+      <c r="BR174">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="BS174">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="BT174">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="BU174">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="BV174">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="BW174">
+        <f t="shared" si="22"/>
+        <v>31</v>
+      </c>
+      <c r="BX174">
+        <f t="shared" si="22"/>
+        <v>32</v>
+      </c>
+      <c r="BY174">
+        <f t="shared" si="22"/>
+        <v>36</v>
+      </c>
+      <c r="BZ174">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="CA174">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="CB174">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="CC174">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="CD174">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="CE174">
+        <f t="shared" si="22"/>
+        <v>43</v>
+      </c>
+      <c r="CF174">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="CG174">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="CH174">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="CI174">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="CJ174">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="CK174">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="CL174">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="CM174">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="CN174">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="CO174">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="CP174">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="CQ174">
+        <f t="shared" si="22"/>
+        <v>23</v>
+      </c>
+      <c r="CR174">
+        <f t="shared" si="22"/>
+        <v>36</v>
+      </c>
+      <c r="CS174">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="CT174">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="CU174">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="CV174">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="CW174">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="CX174">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="CY174">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="CZ174">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="DA174">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="DB174">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="DC174">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="DD174">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="DE174">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="DF174">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="DG174">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="DH174">
+        <f t="shared" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="DI174">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="DJ174">
+        <f t="shared" si="22"/>
+        <v>23</v>
+      </c>
+      <c r="DK174">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="DL174">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="DM174">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="DN174">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="DO174">
+        <f t="shared" si="22"/>
+        <v>31</v>
+      </c>
+      <c r="DP174">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="DQ174">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="DR174">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="DS174">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="DT174">
+        <f t="shared" si="22"/>
+        <v>46</v>
+      </c>
+      <c r="DU174">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="DV174">
+        <f t="shared" si="22"/>
+        <v>53</v>
+      </c>
+      <c r="DW174">
+        <f t="shared" si="22"/>
+        <v>47</v>
+      </c>
+      <c r="DX174">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="DY174">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="DZ174">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="EA174">
+        <f t="shared" ref="EA174:FT174" si="23">COUNTIF(EA$2:EA$169,2)</f>
+        <v>9</v>
+      </c>
+      <c r="EB174">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="EC174">
+        <f t="shared" si="23"/>
+        <v>23</v>
+      </c>
+      <c r="ED174">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="EE174">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="EF174">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="EG174">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="EH174">
+        <f t="shared" si="23"/>
+        <v>85</v>
+      </c>
+      <c r="EI174">
+        <f t="shared" si="23"/>
+        <v>51</v>
+      </c>
+      <c r="EJ174">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="EK174">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="EL174">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="EM174">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="EN174">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="EO174">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="EP174">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="EQ174">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+      <c r="ER174">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="ES174">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="ET174">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="EU174">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="EV174">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="EW174">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="EX174">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="EY174">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="EZ174">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="FA174">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="FB174">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="FC174">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="FD174">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="FE174">
+        <f t="shared" si="23"/>
+        <v>23</v>
+      </c>
+      <c r="FF174">
+        <f t="shared" si="23"/>
+        <v>101</v>
+      </c>
+      <c r="FG174">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="FH174">
+        <f t="shared" si="23"/>
+        <v>43</v>
+      </c>
+      <c r="FI174">
+        <f t="shared" si="23"/>
+        <v>30</v>
+      </c>
+      <c r="FJ174">
+        <f t="shared" si="23"/>
+        <v>27</v>
+      </c>
+      <c r="FK174">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="FL174">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="FM174">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="FN174">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="FO174">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="FP174">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="FQ174">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="FR174">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="FS174">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="FT174">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:184" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>3</v>
+      </c>
+      <c r="B175">
+        <f>COUNTIF(B$2:B$169,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ref="C175:BN175" si="24">COUNTIF(C$2:C$169,3)</f>
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC175">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AD175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AE175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AF175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AG175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AH175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AI175">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AJ175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AK175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AL175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AM175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AO175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AP175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AQ175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AR175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AS175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AT175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AU175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AV175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AW175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AX175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AZ175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BA175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BC175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BD175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BG175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BH175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BI175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BJ175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BK175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BL175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BM175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BN175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BO175">
+        <f t="shared" ref="BO175:DZ175" si="25">COUNTIF(BO$2:BO$169,3)</f>
+        <v>0</v>
+      </c>
+      <c r="BP175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BQ175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BR175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BS175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BT175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BU175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BV175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BW175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BX175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BY175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BZ175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CB175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CC175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CD175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CE175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CF175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CH175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CI175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CJ175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CK175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CL175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CM175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CN175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CO175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CP175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CQ175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CR175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CS175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CT175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CU175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CV175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CW175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CX175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CY175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CZ175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DA175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DB175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DC175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DD175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DE175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DF175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DG175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DH175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DI175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DJ175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DK175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DL175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DM175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DN175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DO175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DP175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DQ175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DR175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DS175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DT175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DU175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DV175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DW175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DX175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DY175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DZ175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="EA175">
+        <f t="shared" ref="EA175:FT175" si="26">COUNTIF(EA$2:EA$169,3)</f>
+        <v>0</v>
+      </c>
+      <c r="EB175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EC175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="ED175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EE175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EF175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EG175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EH175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EI175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EJ175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EK175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EL175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EM175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EN175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EO175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EP175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EQ175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="ER175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="ES175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="ET175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EU175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EV175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EW175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EX175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EY175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EZ175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FA175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FB175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FC175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FD175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FE175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FF175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FG175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FH175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FI175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FJ175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FK175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FL175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FM175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FN175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FO175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FP175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FQ175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FR175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FS175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FT175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:176" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="17">
+        <f>(B173/168)</f>
+        <v>0</v>
+      </c>
+      <c r="C177" s="17">
+        <f t="shared" ref="C177:BN177" si="27">(C173/168)</f>
+        <v>0</v>
+      </c>
+      <c r="D177" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E177" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F177" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G177" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H177" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I177" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K177" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L177" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M177" s="17">
+        <f t="shared" si="27"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="N177" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O177" s="17">
+        <f t="shared" si="27"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="P177" s="17">
+        <f t="shared" si="27"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="Q177" s="17">
+        <f t="shared" si="27"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="R177" s="17">
+        <f t="shared" si="27"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="S177" s="17">
+        <f t="shared" si="27"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="T177" s="17">
+        <f t="shared" si="27"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="U177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="V177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="W177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="X177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.1130952380952381</v>
+      </c>
+      <c r="Y177" s="17">
+        <f t="shared" si="27"/>
+        <v>5.9523809523809521E-2</v>
+      </c>
+      <c r="Z177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.17261904761904762</v>
+      </c>
+      <c r="AA177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.18452380952380953</v>
+      </c>
+      <c r="AB177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="AC177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.18452380952380953</v>
+      </c>
+      <c r="AD177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="AE177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="AF177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.125</v>
+      </c>
+      <c r="AG177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AH177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.13095238095238096</v>
+      </c>
+      <c r="AI177" s="17">
+        <f t="shared" si="27"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="AJ177" s="17">
+        <f t="shared" si="27"/>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AK177" s="17">
+        <f t="shared" si="27"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AL177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.10119047619047619</v>
+      </c>
+      <c r="AM177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.125</v>
+      </c>
+      <c r="AN177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="AO177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.15476190476190477</v>
+      </c>
+      <c r="AP177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.13690476190476192</v>
+      </c>
+      <c r="AQ177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AR177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.13690476190476192</v>
+      </c>
+      <c r="AS177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.13690476190476192</v>
+      </c>
+      <c r="AT177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.13690476190476192</v>
+      </c>
+      <c r="AU177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="AV177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="AW177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="AX177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.10119047619047619</v>
+      </c>
+      <c r="AY177" s="17">
+        <f t="shared" si="27"/>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AZ177" s="17">
+        <f t="shared" si="27"/>
+        <v>6.5476190476190479E-2</v>
+      </c>
+      <c r="BA177" s="17">
+        <f t="shared" si="27"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="BB177" s="17">
+        <f t="shared" si="27"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="BC177" s="17">
+        <f t="shared" si="27"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="BD177" s="17">
+        <f t="shared" si="27"/>
+        <v>5.9523809523809521E-3</v>
+      </c>
+      <c r="BE177" s="17">
+        <f t="shared" si="27"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="BF177" s="17">
+        <f t="shared" si="27"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="BG177" s="17">
+        <f t="shared" si="27"/>
+        <v>2.976190476190476E-2</v>
+      </c>
+      <c r="BH177" s="17">
+        <f t="shared" si="27"/>
+        <v>2.976190476190476E-2</v>
+      </c>
+      <c r="BI177" s="17">
+        <f t="shared" si="27"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="BJ177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="BK177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.29761904761904762</v>
+      </c>
+      <c r="BL177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="BM177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="BN177" s="17">
+        <f t="shared" si="27"/>
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="BO177" s="17">
+        <f t="shared" ref="BO177:DZ177" si="28">(BO173/168)</f>
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="BP177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="BQ177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.22619047619047619</v>
+      </c>
+      <c r="BR177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="BS177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="BT177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="BU177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="BV177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="BW177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.25595238095238093</v>
+      </c>
+      <c r="BX177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.25</v>
+      </c>
+      <c r="BY177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.22619047619047619</v>
+      </c>
+      <c r="BZ177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="CA177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="CB177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CC177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.32738095238095238</v>
+      </c>
+      <c r="CD177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.35119047619047616</v>
+      </c>
+      <c r="CE177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.1130952380952381</v>
+      </c>
+      <c r="CF177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="CG177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="CH177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="CI177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="CJ177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="CK177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="CL177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="CM177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="CN177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.47023809523809523</v>
+      </c>
+      <c r="CO177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.47023809523809523</v>
+      </c>
+      <c r="CP177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.47023809523809523</v>
+      </c>
+      <c r="CQ177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="CR177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.31547619047619047</v>
+      </c>
+      <c r="CS177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="CT177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.44642857142857145</v>
+      </c>
+      <c r="CU177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CV177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="CW177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="CX177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.55952380952380953</v>
+      </c>
+      <c r="CY177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="CZ177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.59523809523809523</v>
+      </c>
+      <c r="DA177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="DB177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="DC177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.60119047619047616</v>
+      </c>
+      <c r="DD177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.65476190476190477</v>
+      </c>
+      <c r="DE177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="DF177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.65476190476190477</v>
+      </c>
+      <c r="DG177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.63690476190476186</v>
+      </c>
+      <c r="DH177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="DI177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.57738095238095233</v>
+      </c>
+      <c r="DJ177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="DK177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="DL177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.6964285714285714</v>
+      </c>
+      <c r="DM177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="DN177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.72023809523809523</v>
+      </c>
+      <c r="DO177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.54761904761904767</v>
+      </c>
+      <c r="DP177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.6964285714285714</v>
+      </c>
+      <c r="DQ177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="DR177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="DS177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="DT177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.51190476190476186</v>
+      </c>
+      <c r="DU177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.125</v>
+      </c>
+      <c r="DV177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="DW177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.65476190476190477</v>
+      </c>
+      <c r="DX177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="DY177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="DZ177" s="17">
+        <f t="shared" si="28"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="EA177" s="17">
+        <f t="shared" ref="EA177:FT177" si="29">(EA173/168)</f>
+        <v>0.9107142857142857</v>
+      </c>
+      <c r="EB177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="EC177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.85119047619047616</v>
+      </c>
+      <c r="ED177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.98809523809523814</v>
+      </c>
+      <c r="EE177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.99404761904761907</v>
+      </c>
+      <c r="EF177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.94047619047619047</v>
+      </c>
+      <c r="EG177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.98809523809523814</v>
+      </c>
+      <c r="EH177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.48809523809523808</v>
+      </c>
+      <c r="EI177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.67261904761904767</v>
+      </c>
+      <c r="EJ177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="EK177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="EL177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.89880952380952384</v>
+      </c>
+      <c r="EM177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="EN177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.88095238095238093</v>
+      </c>
+      <c r="EO177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="EP177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.9107142857142857</v>
+      </c>
+      <c r="EQ177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.88095238095238093</v>
+      </c>
+      <c r="ER177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="ES177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="ET177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="EU177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.94047619047619047</v>
+      </c>
+      <c r="EV177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="EW177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="EX177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="EY177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="EZ177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.85119047619047616</v>
+      </c>
+      <c r="FA177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.84523809523809523</v>
+      </c>
+      <c r="FB177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.99404761904761907</v>
+      </c>
+      <c r="FC177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.99404761904761907</v>
+      </c>
+      <c r="FD177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.99404761904761907</v>
+      </c>
+      <c r="FE177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="FF177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="FG177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.35119047619047616</v>
+      </c>
+      <c r="FH177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="FI177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="FJ177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.22619047619047619</v>
+      </c>
+      <c r="FK177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.25595238095238093</v>
+      </c>
+      <c r="FL177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.24404761904761904</v>
+      </c>
+      <c r="FM177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="FN177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.14880952380952381</v>
+      </c>
+      <c r="FO177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.15476190476190477</v>
+      </c>
+      <c r="FP177" s="17">
+        <f t="shared" si="29"/>
+        <v>0.15476190476190477</v>
+      </c>
+      <c r="FQ177" s="17">
+        <f t="shared" si="29"/>
+        <v>2.976190476190476E-2</v>
+      </c>
+      <c r="FR177" s="17">
+        <f t="shared" si="29"/>
+        <v>2.976190476190476E-2</v>
+      </c>
+      <c r="FS177" s="17">
+        <f t="shared" si="29"/>
+        <v>2.976190476190476E-2</v>
+      </c>
+      <c r="FT177" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:176" x14ac:dyDescent="0.2">
+      <c r="FD179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:176" x14ac:dyDescent="0.2">
+      <c r="DK180" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181" spans="1:176" x14ac:dyDescent="0.2">
+      <c r="DS181" s="19">
+        <f>AVERAGE(B177:DJ177)</f>
+        <v>0.23461862621154664</v>
+      </c>
+      <c r="DU181" s="19">
+        <f>AVERAGE(DK177:FD177)</f>
+        <v>0.82349896480331275</v>
+      </c>
+      <c r="DW181" s="19">
+        <f>AVERAGE(FE177:FT177)</f>
+        <v>0.22544642857142852</v>
       </c>
     </row>
   </sheetData>
@@ -91232,13 +98183,13 @@
     <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="1" priority="3" stopIfTrue="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="0" priority="4" stopIfTrue="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -91253,7 +98204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -91366,7 +98317,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" location="'Sheet1'!B2:FT169" display="'Sheet1'!B2:FT169"/>
+    <hyperlink ref="E9" location="'Sheet1'!B2:FT169" display="'Sheet1'!B2:FT169" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
